--- a/Nobili_357PortusDelphiniCt_BuyerNotedItems.xlsx
+++ b/Nobili_357PortusDelphiniCt_BuyerNotedItems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Docs\Misc\HouseNV-Portofino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD94C5A2-0C1F-4127-822A-FD90636DEF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2546B268-8413-4FFD-8BEA-42E243AC85EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="780" windowWidth="24090" windowHeight="11385" xr2:uid="{A7BF5C1D-4E27-437E-A2F6-1D523C9FF860}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ITEM</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>remove (but we can keep 1 box)</t>
+  </si>
+  <si>
+    <t>357 Portus Delphini Ct - Nobili</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19845A1-7027-452E-8EFE-0B66E85E86F0}">
-  <dimension ref="A1:B12"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,98 +503,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="88" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>